--- a/results/mp/tinybert/corona/confidence/42/topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="124">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,334 +40,352 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>kill</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>anxiety</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>shortage</t>
+    <t>risk</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>drop</t>
+    <t>stop</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>they</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>s</t>
+    <t>i</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
   <si>
     <t>in</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>to</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>'</t>
+    <t>prices</t>
   </si>
   <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
 </sst>
 </file>
@@ -725,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,10 +751,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -794,13 +812,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -812,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -836,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -844,13 +862,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -862,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -886,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -894,13 +912,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.96</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -912,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -936,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -944,13 +962,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.678082191780822</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -962,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -986,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -994,13 +1012,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1012,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1036,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1044,13 +1062,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8235294117647058</v>
+        <v>0.52</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1062,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1086,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1094,13 +1112,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8181818181818182</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1112,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.85</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1136,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1144,13 +1162,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8181818181818182</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1162,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.8431372549019608</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L10">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1186,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1194,13 +1212,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7857142857142857</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C11">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1212,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1236,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1244,13 +1262,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7333333333333333</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1262,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.8214285714285714</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1286,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1294,13 +1312,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1312,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.8103448275862069</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L13">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="M13">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1336,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1344,13 +1362,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6666666666666666</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1362,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.7647058823529411</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1386,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1394,13 +1412,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5833333333333334</v>
+        <v>0.3003875968992248</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1412,19 +1430,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>361</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.76</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1436,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1444,13 +1462,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5625</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1462,19 +1480,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1486,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1494,13 +1512,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5416666666666666</v>
+        <v>0.24</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1512,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.7241379310344828</v>
+        <v>0.71875</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1536,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1544,13 +1562,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1562,19 +1580,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.6712328767123288</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L18">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1586,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1594,13 +1612,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.48068669527897</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="C19">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1612,19 +1630,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L19">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1636,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>71</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1644,13 +1662,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4210526315789473</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1662,19 +1680,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1686,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1694,13 +1712,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4090909090909091</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1712,19 +1730,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>0.6538461538461539</v>
+        <v>0.64</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1736,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1744,13 +1762,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3888888888888889</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1762,19 +1780,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.64</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1786,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1794,37 +1812,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3837209302325582</v>
+        <v>0.0456989247311828</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
+        <v>355</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="K23">
-        <v>0.6363636363636364</v>
+        <v>0.6057441253263708</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1836,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1844,37 +1862,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3809523809523809</v>
+        <v>0.005705229793977813</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.28</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>13</v>
+        <v>3137</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>0.6363636363636364</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L24">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1886,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1894,37 +1912,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3571428571428572</v>
+        <v>0.003368337626312661</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>18</v>
+        <v>5030</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K25">
-        <v>0.6153846153846154</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L25">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1936,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1944,923 +1962,635 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2962962962962963</v>
+        <v>0.003313315386208325</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>183</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
+        <v>4813</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="L26">
+        <v>37</v>
+      </c>
+      <c r="M26">
+        <v>37</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L27">
+        <v>21</v>
+      </c>
+      <c r="M27">
+        <v>21</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L28">
+        <v>14</v>
+      </c>
+      <c r="M28">
+        <v>14</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="L29">
+        <v>18</v>
+      </c>
+      <c r="M29">
+        <v>18</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="L30">
+        <v>17</v>
+      </c>
+      <c r="M30">
+        <v>17</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K31">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="L31">
+        <v>23</v>
+      </c>
+      <c r="M31">
+        <v>23</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K32">
+        <v>0.4949152542372882</v>
+      </c>
+      <c r="L32">
+        <v>146</v>
+      </c>
+      <c r="M32">
+        <v>146</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33">
+        <v>0.488235294117647</v>
+      </c>
+      <c r="L33">
+        <v>166</v>
+      </c>
+      <c r="M33">
+        <v>166</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K34">
+        <v>0.4831460674157304</v>
+      </c>
+      <c r="L34">
+        <v>43</v>
+      </c>
+      <c r="M34">
+        <v>43</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="L35">
+        <v>13</v>
+      </c>
+      <c r="M35">
+        <v>13</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K36">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="L36">
+        <v>36</v>
+      </c>
+      <c r="M36">
+        <v>36</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K37">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="L37">
+        <v>30</v>
+      </c>
+      <c r="M37">
+        <v>30</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K38">
+        <v>0.45</v>
+      </c>
+      <c r="L38">
+        <v>18</v>
+      </c>
+      <c r="M38">
+        <v>18</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K39">
+        <v>0.4267782426778243</v>
+      </c>
+      <c r="L39">
+        <v>102</v>
+      </c>
+      <c r="M39">
+        <v>102</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K40">
+        <v>0.3698630136986301</v>
+      </c>
+      <c r="L40">
+        <v>27</v>
+      </c>
+      <c r="M40">
+        <v>27</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K41">
+        <v>0.325</v>
+      </c>
+      <c r="L41">
+        <v>13</v>
+      </c>
+      <c r="M41">
+        <v>13</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K42">
+        <v>0.3023255813953488</v>
+      </c>
+      <c r="L42">
+        <v>13</v>
+      </c>
+      <c r="M42">
+        <v>13</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K43">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L43">
+        <v>20</v>
+      </c>
+      <c r="M43">
+        <v>20</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K44">
+        <v>0.1637931034482759</v>
+      </c>
+      <c r="L44">
         <v>19</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K26">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="L26">
-        <v>10</v>
-      </c>
-      <c r="M26">
-        <v>10</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.2894736842105263</v>
-      </c>
-      <c r="C27">
-        <v>11</v>
-      </c>
-      <c r="D27">
-        <v>11</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>27</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="L27">
-        <v>17</v>
-      </c>
-      <c r="M27">
-        <v>17</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.2875</v>
-      </c>
-      <c r="C28">
-        <v>23</v>
-      </c>
-      <c r="D28">
-        <v>23</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>57</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K28">
-        <v>0.5625</v>
-      </c>
-      <c r="L28">
-        <v>81</v>
-      </c>
-      <c r="M28">
-        <v>81</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.2758620689655172</v>
-      </c>
-      <c r="C29">
-        <v>8</v>
-      </c>
-      <c r="D29">
-        <v>8</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>21</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K29">
-        <v>0.55</v>
-      </c>
-      <c r="L29">
-        <v>11</v>
-      </c>
-      <c r="M29">
-        <v>11</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.2424242424242424</v>
-      </c>
-      <c r="C30">
-        <v>8</v>
-      </c>
-      <c r="D30">
-        <v>8</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>25</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K30">
-        <v>0.5405405405405406</v>
-      </c>
-      <c r="L30">
+      <c r="M44">
+        <v>19</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K45">
+        <v>0.1139240506329114</v>
+      </c>
+      <c r="L45">
+        <v>18</v>
+      </c>
+      <c r="M45">
+        <v>19</v>
+      </c>
+      <c r="N45">
+        <v>0.95</v>
+      </c>
+      <c r="O45">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K46">
+        <v>0.09615384615384616</v>
+      </c>
+      <c r="L46">
+        <v>40</v>
+      </c>
+      <c r="M46">
+        <v>40</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K47">
+        <v>0.09049773755656108</v>
+      </c>
+      <c r="L47">
         <v>20</v>
       </c>
-      <c r="M30">
+      <c r="M47">
         <v>20</v>
       </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.2296296296296296</v>
-      </c>
-      <c r="C31">
-        <v>31</v>
-      </c>
-      <c r="D31">
-        <v>31</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>104</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K31">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="L31">
-        <v>9</v>
-      </c>
-      <c r="M31">
-        <v>9</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K48">
+        <v>0.08872901678657075</v>
+      </c>
+      <c r="L48">
         <v>37</v>
       </c>
-      <c r="B32">
-        <v>0.2</v>
-      </c>
-      <c r="C32">
-        <v>22</v>
-      </c>
-      <c r="D32">
-        <v>22</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>88</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K32">
-        <v>0.5193798449612403</v>
-      </c>
-      <c r="L32">
-        <v>67</v>
-      </c>
-      <c r="M32">
-        <v>67</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
+      <c r="M48">
         <v>38</v>
       </c>
-      <c r="B33">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="C33">
-        <v>8</v>
-      </c>
-      <c r="D33">
-        <v>8</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>38</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K33">
-        <v>0.4857142857142857</v>
-      </c>
-      <c r="L33">
-        <v>17</v>
-      </c>
-      <c r="M33">
-        <v>17</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.09139784946236559</v>
-      </c>
-      <c r="C34">
-        <v>17</v>
-      </c>
-      <c r="D34">
-        <v>17</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>169</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K34">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="L34">
-        <v>9</v>
-      </c>
-      <c r="M34">
-        <v>9</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.007494646680942184</v>
-      </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
-      <c r="D35">
-        <v>26</v>
-      </c>
-      <c r="E35">
-        <v>0.73</v>
-      </c>
-      <c r="F35">
-        <v>0.27</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>927</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K35">
-        <v>0.4565217391304348</v>
-      </c>
-      <c r="L35">
-        <v>42</v>
-      </c>
-      <c r="M35">
-        <v>42</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.007346189164370982</v>
-      </c>
-      <c r="C36">
-        <v>8</v>
-      </c>
-      <c r="D36">
-        <v>42</v>
-      </c>
-      <c r="E36">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="F36">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>1081</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K36">
-        <v>0.44</v>
-      </c>
-      <c r="L36">
-        <v>11</v>
-      </c>
-      <c r="M36">
-        <v>11</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.006966434452184927</v>
-      </c>
-      <c r="C37">
-        <v>11</v>
-      </c>
-      <c r="D37">
-        <v>29</v>
-      </c>
-      <c r="E37">
-        <v>0.62</v>
-      </c>
-      <c r="F37">
-        <v>0.38</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>1568</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K37">
-        <v>0.4090909090909091</v>
-      </c>
-      <c r="L37">
-        <v>9</v>
-      </c>
-      <c r="M37">
-        <v>9</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.005821474773609315</v>
-      </c>
-      <c r="C38">
-        <v>9</v>
-      </c>
-      <c r="D38">
-        <v>27</v>
-      </c>
-      <c r="E38">
-        <v>0.67</v>
-      </c>
-      <c r="F38">
-        <v>0.33</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>1537</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K38">
-        <v>0.4</v>
-      </c>
-      <c r="L38">
-        <v>8</v>
-      </c>
-      <c r="M38">
-        <v>8</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K39">
-        <v>0.3225806451612903</v>
-      </c>
-      <c r="L39">
-        <v>10</v>
-      </c>
-      <c r="M39">
-        <v>10</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K40">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="L40">
-        <v>9</v>
-      </c>
-      <c r="M40">
-        <v>9</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K41">
-        <v>0.2916666666666667</v>
-      </c>
-      <c r="L41">
-        <v>7</v>
-      </c>
-      <c r="M41">
-        <v>7</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K42">
-        <v>0.2894736842105263</v>
-      </c>
-      <c r="L42">
-        <v>11</v>
-      </c>
-      <c r="M42">
-        <v>11</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K43">
-        <v>0.1839080459770115</v>
-      </c>
-      <c r="L43">
-        <v>16</v>
-      </c>
-      <c r="M43">
-        <v>16</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K44">
-        <v>0.1794871794871795</v>
-      </c>
-      <c r="L44">
-        <v>7</v>
-      </c>
-      <c r="M44">
-        <v>7</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K45">
-        <v>0.05853658536585366</v>
-      </c>
-      <c r="L45">
-        <v>24</v>
-      </c>
-      <c r="M45">
-        <v>24</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K46">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="L46">
-        <v>11</v>
-      </c>
-      <c r="M46">
-        <v>11</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K47">
-        <v>0.05429864253393665</v>
-      </c>
-      <c r="L47">
-        <v>12</v>
-      </c>
-      <c r="M47">
-        <v>13</v>
-      </c>
-      <c r="N47">
-        <v>0.92</v>
-      </c>
-      <c r="O47">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K48">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="L48">
-        <v>7</v>
-      </c>
-      <c r="M48">
-        <v>7</v>
-      </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>126</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K49">
-        <v>0.05043859649122807</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="L49">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M49">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2872,21 +2602,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>433</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K50">
-        <v>0.04666666666666667</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="L50">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2898,21 +2628,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K51">
-        <v>0.03827751196172249</v>
+        <v>0.06935123042505593</v>
       </c>
       <c r="L51">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="M51">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2924,333 +2654,333 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>201</v>
+        <v>832</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K52">
-        <v>0.03553299492385787</v>
+        <v>0.06840390879478828</v>
       </c>
       <c r="L52">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M52">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N52">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="O52">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>190</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K53">
-        <v>0.03503184713375796</v>
+        <v>0.0645933014354067</v>
       </c>
       <c r="L53">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="M53">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="N53">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>303</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K54">
-        <v>0.03473945409429281</v>
+        <v>0.06352459016393443</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M54">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>389</v>
+        <v>457</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K55">
-        <v>0.03296703296703297</v>
+        <v>0.06074766355140187</v>
       </c>
       <c r="L55">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M55">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>264</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K56">
-        <v>0.03286384976525822</v>
+        <v>0.05369807497467072</v>
       </c>
       <c r="L56">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="M56">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>412</v>
+        <v>934</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="K57">
-        <v>0.0304932735426009</v>
+        <v>0.0475396163469558</v>
       </c>
       <c r="L57">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M57">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="N57">
-        <v>0.8100000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="O57">
-        <v>0.1899999999999999</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>1081</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="K58">
-        <v>0.02927927927927928</v>
+        <v>0.04732510288065844</v>
       </c>
       <c r="L58">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M58">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N58">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>431</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="K59">
-        <v>0.02708803611738149</v>
+        <v>0.04475308641975308</v>
       </c>
       <c r="L59">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="M59">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N59">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O59">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>431</v>
+        <v>619</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="K60">
-        <v>0.02507836990595611</v>
+        <v>0.04387568555758684</v>
       </c>
       <c r="L60">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M60">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N60">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>622</v>
+        <v>523</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="K61">
-        <v>0.02446483180428135</v>
+        <v>0.04351395730706076</v>
       </c>
       <c r="L61">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="M61">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>319</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="K62">
-        <v>0.02378378378378378</v>
+        <v>0.04313173933427098</v>
       </c>
       <c r="L62">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="M62">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="N62">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="O62">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>903</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="K63">
-        <v>0.02310924369747899</v>
+        <v>0.04227941176470588</v>
       </c>
       <c r="L63">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M63">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N63">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>465</v>
+        <v>521</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="K64">
-        <v>0.02215189873417722</v>
+        <v>0.04217536071032187</v>
       </c>
       <c r="L64">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="M64">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3262,47 +2992,47 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>309</v>
+        <v>863</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="K65">
-        <v>0.02178899082568807</v>
+        <v>0.04157043879907621</v>
       </c>
       <c r="L65">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M65">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N65">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="O65">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>853</v>
+        <v>830</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="K66">
-        <v>0.02064451158106747</v>
+        <v>0.03939962476547842</v>
       </c>
       <c r="L66">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="M66">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="N66">
         <v>0.93</v>
@@ -3314,229 +3044,229 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>1945</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="K67">
-        <v>0.02037037037037037</v>
+        <v>0.03876852907639681</v>
       </c>
       <c r="L67">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="M67">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N67">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="O67">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>529</v>
+        <v>843</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="K68">
-        <v>0.0200845665961945</v>
+        <v>0.03674540682414698</v>
       </c>
       <c r="L68">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M68">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N68">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="O68">
-        <v>0.27</v>
+        <v>0.12</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>927</v>
+        <v>367</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="K69">
-        <v>0.01988636363636364</v>
+        <v>0.03456945317410434</v>
       </c>
       <c r="L69">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="M69">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="N69">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="O69">
-        <v>0.22</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>345</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="K70">
-        <v>0.01920768307322929</v>
+        <v>0.03353413654618474</v>
       </c>
       <c r="L70">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="M70">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="N70">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O70">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>817</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="K71">
-        <v>0.01777522935779817</v>
+        <v>0.032</v>
       </c>
       <c r="L71">
+        <v>28</v>
+      </c>
+      <c r="M71">
         <v>31</v>
       </c>
-      <c r="M71">
-        <v>33</v>
-      </c>
       <c r="N71">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="O71">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>1713</v>
+        <v>847</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="K72">
-        <v>0.01671891327063741</v>
+        <v>0.03178484107579462</v>
       </c>
       <c r="L72">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M72">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="N72">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O72">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>1882</v>
+        <v>396</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="K73">
-        <v>0.01646090534979424</v>
+        <v>0.03070175438596491</v>
       </c>
       <c r="L73">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M73">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>478</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="K74">
-        <v>0.0162037037037037</v>
+        <v>0.03068340306834031</v>
       </c>
       <c r="L74">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M74">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="N74">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="O74">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>425</v>
+        <v>695</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="K75">
-        <v>0.01612903225806452</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="L75">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M75">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3548,111 +3278,553 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>427</v>
+        <v>748</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="K76">
-        <v>0.01157556270096463</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="L76">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="M76">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="N76">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="O76">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>1537</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="K77">
-        <v>0.01134930643127365</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="L77">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M77">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N77">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="O77">
-        <v>0.38</v>
+        <v>0.21</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>1568</v>
+        <v>684</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="K78">
-        <v>0.008048289738430584</v>
+        <v>0.02587991718426501</v>
       </c>
       <c r="L78">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="M78">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>986</v>
+        <v>941</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K79">
+        <v>0.02479338842975207</v>
+      </c>
+      <c r="L79">
+        <v>15</v>
+      </c>
+      <c r="M79">
+        <v>15</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K80">
+        <v>0.02325581395348837</v>
+      </c>
+      <c r="L80">
+        <v>15</v>
+      </c>
+      <c r="M80">
+        <v>17</v>
+      </c>
+      <c r="N80">
+        <v>0.88</v>
+      </c>
+      <c r="O80">
+        <v>0.12</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K81">
+        <v>0.02294792586054722</v>
+      </c>
+      <c r="L81">
+        <v>26</v>
+      </c>
+      <c r="M81">
+        <v>33</v>
+      </c>
+      <c r="N81">
+        <v>0.79</v>
+      </c>
+      <c r="O81">
+        <v>0.21</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K82">
+        <v>0.02293577981651376</v>
+      </c>
+      <c r="L82">
+        <v>15</v>
+      </c>
+      <c r="M82">
+        <v>16</v>
+      </c>
+      <c r="N82">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O82">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K83">
+        <v>0.02292152292152292</v>
+      </c>
+      <c r="L83">
+        <v>118</v>
+      </c>
+      <c r="M83">
+        <v>135</v>
+      </c>
+      <c r="N83">
+        <v>0.87</v>
+      </c>
+      <c r="O83">
+        <v>0.13</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>5030</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K84">
+        <v>0.02258566978193146</v>
+      </c>
+      <c r="L84">
+        <v>29</v>
+      </c>
+      <c r="M84">
+        <v>34</v>
+      </c>
+      <c r="N84">
+        <v>0.85</v>
+      </c>
+      <c r="O84">
+        <v>0.15</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K85">
+        <v>0.02236421725239617</v>
+      </c>
+      <c r="L85">
+        <v>14</v>
+      </c>
+      <c r="M85">
+        <v>15</v>
+      </c>
+      <c r="N85">
+        <v>0.93</v>
+      </c>
+      <c r="O85">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K86">
+        <v>0.02201027146001467</v>
+      </c>
+      <c r="L86">
+        <v>30</v>
+      </c>
+      <c r="M86">
+        <v>30</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K87">
+        <v>0.02064026958719461</v>
+      </c>
+      <c r="L87">
+        <v>49</v>
+      </c>
+      <c r="M87">
+        <v>54</v>
+      </c>
+      <c r="N87">
+        <v>0.91</v>
+      </c>
+      <c r="O87">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K88">
+        <v>0.02019230769230769</v>
+      </c>
+      <c r="L88">
+        <v>21</v>
+      </c>
+      <c r="M88">
+        <v>21</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K79">
-        <v>0.007478632478632479</v>
-      </c>
-      <c r="L79">
-        <v>7</v>
-      </c>
-      <c r="M79">
-        <v>10</v>
-      </c>
-      <c r="N79">
-        <v>0.7</v>
-      </c>
-      <c r="O79">
-        <v>0.3</v>
-      </c>
-      <c r="P79" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q79">
-        <v>929</v>
+      <c r="K89">
+        <v>0.01903807615230461</v>
+      </c>
+      <c r="L89">
+        <v>19</v>
+      </c>
+      <c r="M89">
+        <v>20</v>
+      </c>
+      <c r="N89">
+        <v>0.95</v>
+      </c>
+      <c r="O89">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K90">
+        <v>0.01882613510520487</v>
+      </c>
+      <c r="L90">
+        <v>17</v>
+      </c>
+      <c r="M90">
+        <v>19</v>
+      </c>
+      <c r="N90">
+        <v>0.89</v>
+      </c>
+      <c r="O90">
+        <v>0.11</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K91">
+        <v>0.01778741865509761</v>
+      </c>
+      <c r="L91">
+        <v>41</v>
+      </c>
+      <c r="M91">
+        <v>45</v>
+      </c>
+      <c r="N91">
+        <v>0.91</v>
+      </c>
+      <c r="O91">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K92">
+        <v>0.01765799256505576</v>
+      </c>
+      <c r="L92">
+        <v>38</v>
+      </c>
+      <c r="M92">
+        <v>44</v>
+      </c>
+      <c r="N92">
+        <v>0.86</v>
+      </c>
+      <c r="O92">
+        <v>0.14</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K93">
+        <v>0.01759666589488307</v>
+      </c>
+      <c r="L93">
+        <v>76</v>
+      </c>
+      <c r="M93">
+        <v>85</v>
+      </c>
+      <c r="N93">
+        <v>0.89</v>
+      </c>
+      <c r="O93">
+        <v>0.11</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K94">
+        <v>0.01553062985332183</v>
+      </c>
+      <c r="L94">
+        <v>18</v>
+      </c>
+      <c r="M94">
+        <v>20</v>
+      </c>
+      <c r="N94">
+        <v>0.9</v>
+      </c>
+      <c r="O94">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
+      <c r="J95" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K95">
+        <v>0.01445177505497958</v>
+      </c>
+      <c r="L95">
+        <v>46</v>
+      </c>
+      <c r="M95">
+        <v>64</v>
+      </c>
+      <c r="N95">
+        <v>0.72</v>
+      </c>
+      <c r="O95">
+        <v>0.28</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17">
+      <c r="J96" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K96">
+        <v>0.01255230125523013</v>
+      </c>
+      <c r="L96">
+        <v>30</v>
+      </c>
+      <c r="M96">
+        <v>34</v>
+      </c>
+      <c r="N96">
+        <v>0.88</v>
+      </c>
+      <c r="O96">
+        <v>0.12</v>
+      </c>
+      <c r="P96" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>2360</v>
       </c>
     </row>
   </sheetData>
